--- a/Week 2 - Final App Project Write-up.xlsx
+++ b/Week 2 - Final App Project Write-up.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwfei\Google Drive\Justin\COLLEGE WORK\Maryville University\SWDV 665 - Advanced Topics\final-project-JustinFeistner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F08793-9B2C-4C7F-8A6E-D18AF23BA875}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19FF83C1-E810-4AA5-BF51-18ED8B969D09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{48356534-0FED-4AFA-B95C-8A0CD23E9855}"/>
+    <workbookView xWindow="11340" yWindow="12852" windowWidth="23256" windowHeight="12576" xr2:uid="{48356534-0FED-4AFA-B95C-8A0CD23E9855}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>Camera</t>
   </si>
@@ -39,18 +39,6 @@
   </si>
   <si>
     <t>Pictures Screen</t>
-  </si>
-  <si>
-    <t>Picture Details</t>
-  </si>
-  <si>
-    <t>Details: 10/30/2019 - 21:12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is the first time my cats touched each other without trying to kill each other. Yayyyy! </t>
-  </si>
-  <si>
-    <t>Image Description:</t>
   </si>
   <si>
     <t>Picture Gallery</t>
@@ -85,7 +73,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -173,48 +161,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -225,7 +176,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -234,51 +186,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -308,9 +220,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
+      <xdr:colOff>575310</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>194310</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -352,9 +264,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>365247</xdr:colOff>
+      <xdr:colOff>376677</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>148590</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -396,9 +308,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>580980</xdr:colOff>
+      <xdr:colOff>575265</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
+      <xdr:rowOff>156211</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -442,7 +354,7 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>339428</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
+      <xdr:rowOff>87631</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -467,50 +379,6 @@
         <a:xfrm>
           <a:off x="6153150" y="2847976"/>
           <a:ext cx="2720678" cy="1828800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>561974</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>187515</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7945137E-71A1-4DA0-9BAA-8FB90D3F00DE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8486774" y="933449"/>
-          <a:ext cx="1905001" cy="2502091"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -819,10 +687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D63506E-03D9-480C-8637-A51331573AAF}">
-  <dimension ref="B2:R28"/>
+  <dimension ref="B2:L28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q27" sqref="Q27:Q28"/>
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -830,41 +698,30 @@
     <col min="11" max="12" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-    </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="13" t="s">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="H3" s="13" t="s">
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="H3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="N3" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-    </row>
-    <row r="4" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+    </row>
+    <row r="4" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -875,15 +732,8 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="3"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="3"/>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -894,13 +744,8 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="6"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="6"/>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -911,13 +756,8 @@
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="6"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="6"/>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -928,13 +768,8 @@
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="6"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="6"/>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -945,13 +780,8 @@
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="L9" s="6"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="6"/>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -962,13 +792,8 @@
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="6"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="6"/>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -979,13 +804,8 @@
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="6"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="6"/>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -996,13 +816,8 @@
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="6"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="6"/>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -1013,13 +828,8 @@
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="6"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="6"/>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -1030,13 +840,8 @@
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="6"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="6"/>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -1047,13 +852,8 @@
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="6"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="6"/>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -1064,13 +864,8 @@
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
       <c r="L16" s="6"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="6"/>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -1081,13 +876,8 @@
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="6"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="6"/>
-    </row>
-    <row r="18" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -1098,13 +888,8 @@
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="6"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="6"/>
-    </row>
-    <row r="19" spans="2:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -1115,15 +900,8 @@
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="L19" s="6"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="6"/>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -1134,15 +912,8 @@
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="L20" s="6"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="6"/>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="4"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -1153,13 +924,8 @@
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
       <c r="L21" s="6"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="22"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="6"/>
-    </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -1170,13 +936,8 @@
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
       <c r="L22" s="6"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="6"/>
-    </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="4"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -1187,13 +948,8 @@
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
       <c r="L23" s="6"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="23"/>
-      <c r="R23" s="6"/>
-    </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -1204,13 +960,8 @@
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
       <c r="L24" s="6"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="23"/>
-      <c r="R24" s="6"/>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="4"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -1221,13 +972,8 @@
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
       <c r="L25" s="6"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="23"/>
-      <c r="R25" s="6"/>
-    </row>
-    <row r="26" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -1238,66 +984,41 @@
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
       <c r="L26" s="6"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="18"/>
-      <c r="Q26" s="25"/>
-      <c r="R26" s="6"/>
-    </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="12" t="s">
         <v>0</v>
       </c>
       <c r="D27" s="2"/>
-      <c r="E27" s="15" t="s">
-        <v>7</v>
+      <c r="E27" s="14" t="s">
+        <v>3</v>
       </c>
       <c r="F27" s="3"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="11" t="s">
+      <c r="I27" s="12" t="s">
         <v>0</v>
       </c>
       <c r="J27" s="2"/>
-      <c r="K27" s="15" t="s">
-        <v>7</v>
+      <c r="K27" s="14" t="s">
+        <v>3</v>
       </c>
       <c r="L27" s="3"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="R27" s="3"/>
-    </row>
-    <row r="28" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="7"/>
-      <c r="C28" s="12"/>
+      <c r="C28" s="13"/>
       <c r="D28" s="8"/>
-      <c r="E28" s="16"/>
+      <c r="E28" s="15"/>
       <c r="F28" s="9"/>
       <c r="H28" s="7"/>
-      <c r="I28" s="12"/>
+      <c r="I28" s="13"/>
       <c r="J28" s="8"/>
-      <c r="K28" s="16"/>
+      <c r="K28" s="15"/>
       <c r="L28" s="9"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="12"/>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="16"/>
-      <c r="R28" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="Q27:Q28"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="O20:Q26"/>
+  <mergeCells count="6">
     <mergeCell ref="C27:C28"/>
     <mergeCell ref="E27:E28"/>
     <mergeCell ref="B3:F3"/>
